--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/correct_predictions_123.xlsx
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1367,21 +1367,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1517,21 +1517,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/correct_predictions_123.xlsx
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1367,21 +1367,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1517,21 +1517,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
